--- a/data/georgia_census/qvemo-qartli/rustavi/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/rustavi/healthcare_staff.xlsx
@@ -1300,13 +1300,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A93FDFE-934E-4923-BDB8-D7B7F4F9DE45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B351DD09-7978-4946-A159-8E918FEF51CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056D6501-C54C-4B08-A6F0-3E8D968F0B2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB1EE2B-7D67-4645-B60A-5C1E35164320}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74FBA65B-E6B3-4620-8CD5-4CEE41033E74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B1B6F58-8AE6-4633-83D2-D0E8D738F136}"/>
 </file>